--- a/预测数据.xlsx
+++ b/预测数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022_2023_second\课程学习\数学模型\数模结课报告\D题\D题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7155A16-E4D1-41A5-8BB3-703815C8B40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B19301-2177-4ED1-82AD-62AC9AB831A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -494,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AF110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D54"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
